--- a/results_check.xlsx
+++ b/results_check.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiruihuang/Documents/GitHub/calculate-heat-transfer-coefficient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF26744-FEBB-AD48-A51D-70656C9DBBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC03A80A-DBF6-E94B-853D-F7846FB80DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{BCC94D44-2AB3-8A43-AC60-8D5749CDE092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>p=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>Rtot,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ air layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,12 +198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -361,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +424,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BA4C4C-504D-2943-A179-09EFA23DC5CE}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1710,7 +1732,7 @@
         <v>3.0232544122719043</v>
       </c>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="1:21">
       <c r="B33" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -1775,7 +1797,7 @@
         <v>0.33076938412487872</v>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="1:21">
       <c r="B34" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1833,7 +1855,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="1:21">
       <c r="B35" s="1">
         <v>0.01</v>
       </c>
@@ -1891,7 +1913,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="1:21">
       <c r="B36" s="1">
         <v>0.08</v>
       </c>
@@ -1942,7 +1964,7 @@
       <c r="R36" s="12"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="1:21">
       <c r="B37" s="1">
         <v>0.01</v>
       </c>
@@ -1993,7 +2015,7 @@
       <c r="R37" s="12"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="1:21">
       <c r="B38" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2044,7 +2066,7 @@
       <c r="R38" s="12"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="1:21">
       <c r="B39" s="1">
         <v>0.06</v>
       </c>
@@ -2094,6 +2116,512 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="10"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="6">
+        <f>J1+J2+SUM(D42:D49)</f>
+        <v>4.5459999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D42" s="16">
+        <f>B42/C42</f>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G42" s="16">
+        <f>E42/F42</f>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="J42" s="3">
+        <f>H42/I42</f>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M42" s="3">
+        <f>K42/L42</f>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="12">
+        <f>J1+J2+SUM(G42:G49)</f>
+        <v>2.3761097059481058</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="11">
+        <f>1/($B$31/D42+$E$31/G42+$H$31/J42+$K$31/M42)</f>
+        <v>5.9523809523809534E-2</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="6">
+        <f>J1+J2+SUM(Q42:Q49)</f>
+        <v>2.0607138760843648</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="6">
+        <f>(O45+S42)/2</f>
+        <v>2.9593136131162652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="B43" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" ref="D43:D49" si="13">B43/C43</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" ref="G43:G49" si="14">E43/F43</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" ref="J43:J49" si="15">H43/I43</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" ref="M43:M49" si="16">K43/L43</f>
+        <v>1E-3</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="12">
+        <f>J1+J2+SUM(J42:J49)</f>
+        <v>2.1974250374812589</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" ref="Q43:Q49" si="17">1/($B$31/D43+$E$31/G43+$H$31/J43+$K$31/M43)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U43" s="10">
+        <f>1/U42</f>
+        <v>0.33791619636654985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="B44" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="13"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="14"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="15"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="16"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="12">
+        <f>J1+J2+SUM(M42:M49)</f>
+        <v>2.0476666666666663</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" si="17"/>
+        <v>5.9523809523809534E-2</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="B45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F45" s="19">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="G45" s="18">
+        <f t="shared" si="14"/>
+        <v>0.14992503748125938</v>
+      </c>
+      <c r="H45" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="19">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J45" s="21">
+        <f t="shared" si="15"/>
+        <v>0.14992503748125938</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="1">
+        <v>60</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="16"/>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45" s="13">
+        <f>1/(B41/O41+E41/O42+H41/O43+K41/O44)</f>
+        <v>3.8579133501481655</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="17"/>
+        <v>1.6562867178061753E-3</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="B46" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="14"/>
+        <v>0.18001800180018002</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I46" s="1">
+        <v>60</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="L46" s="1">
+        <v>60</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="17"/>
+        <v>1.2019555817314771E-2</v>
+      </c>
+      <c r="R46" s="12"/>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="B47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F47" s="1">
+        <v>60</v>
+      </c>
+      <c r="G47" s="16">
+        <f t="shared" si="14"/>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="1">
+        <v>60</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="15"/>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L47" s="1">
+        <v>60</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="16"/>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="17"/>
+        <v>1.0380335492443115E-3</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="B48" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="13"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G48" s="16">
+        <f t="shared" si="14"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="15"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="16"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="17"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R48" s="12"/>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="13"/>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" si="14"/>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="15"/>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="16"/>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="13">
+        <f t="shared" si="17"/>
+        <v>1.7142857142857137</v>
+      </c>
+      <c r="R49" s="13"/>
+      <c r="S49" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
